--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Northern Royal Albatross_Chatham Island.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Northern Royal Albatross_Chatham Island.xlsx
@@ -10755,13 +10755,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D02F842-E864-44CF-8D54-BC700102F7E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A5AA4D-F212-463B-9B76-FAAF25BBB773}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F5D4B0-CD7C-4D79-8DFB-B30997F9B434}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC9D44A3-B5A9-439A-AD25-35F489CCB845}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E34571FE-1D61-419B-92EB-D86590055E91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8C61ABC-54D3-4DBA-BC55-66ED54FD887B}"/>
 </file>